--- a/biology/Zoologie/Echinodon/Echinodon.xlsx
+++ b/biology/Zoologie/Echinodon/Echinodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodon becklesii
 Echinodon est un genre éteint de petits dinosaures ornithischiens primitifs appartenant à la famille des hétérodontosauridés. Il a vécu en Angleterre au début du Crétacé inférieur (Berriasien), soit il y a environ entre 149,2 à ≃139,8 millions d'années.
-La seule espèce est Echinodon becklesii, nommée en 1861 par Richard Owen, qui l'a confondu avec un lézard[1].
+La seule espèce est Echinodon becklesii, nommée en 1861 par Richard Owen, qui l'a confondu avec un lézard.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Echinodon est composé des mots du grec ancien « echino  »,  « épineux » et « odon », « dent », pour donner « dent épineuse » en référence aux pointes sur ses dents.
 </t>
@@ -544,7 +558,9 @@
           <t>Découverte et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spécimen a été découvert par Samuel Beckles près de Swanage, Angleterre. Bipède herbivore, il mesurait environ 60 centimètres de long. À la différence de la plupart des ornithischiens, Echinodon avait une ou deux dents de forme canine dans chaque maxillaire supérieur.
 </t>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinodon a été parfois considéré comme un thiréophorien, principalement en raison de l'association incorrecte d'ostéodermes de tortues avec ses restes.
-Paul Sereno l'a reclassé en Heterodontosauridae en 1991. Dans son étude de 2012 sur la phylogénie des Heterodontosauridae[2], il le place en position très basale au sein de cette famille : 
+Paul Sereno l'a reclassé en Heterodontosauridae en 1991. Dans son étude de 2012 sur la phylogénie des Heterodontosauridae, il le place en position très basale au sein de cette famille : 
 </t>
         </is>
       </c>
